--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fgf2-Fgfr1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Fgfr1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H2">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I2">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J2">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N2">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O2">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P2">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q2">
-        <v>61.57034994211863</v>
+        <v>4.72479123325</v>
       </c>
       <c r="R2">
-        <v>61.57034994211863</v>
+        <v>42.52312109925</v>
       </c>
       <c r="S2">
-        <v>0.04087915922959827</v>
+        <v>0.002491470401821891</v>
       </c>
       <c r="T2">
-        <v>0.04087915922959827</v>
+        <v>0.002990784527008021</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H3">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I3">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J3">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N3">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O3">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P3">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q3">
-        <v>711.5182767753985</v>
+        <v>48.80299679765</v>
       </c>
       <c r="R3">
-        <v>711.5182767753985</v>
+        <v>439.22697117885</v>
       </c>
       <c r="S3">
-        <v>0.4724070751329894</v>
+        <v>0.02573472901529992</v>
       </c>
       <c r="T3">
-        <v>0.4724070751329894</v>
+        <v>0.03089221099693624</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H4">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I4">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J4">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N4">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O4">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P4">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q4">
-        <v>9.628712896541757</v>
+        <v>0.8854503015433334</v>
       </c>
       <c r="R4">
-        <v>9.628712896541757</v>
+        <v>7.96905271389</v>
       </c>
       <c r="S4">
-        <v>0.006392909704814854</v>
+        <v>0.0004669144327593943</v>
       </c>
       <c r="T4">
-        <v>0.006392909704814854</v>
+        <v>0.00056048848098391</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H5">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I5">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J5">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N5">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O5">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P5">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q5">
-        <v>5.775122230061061</v>
+        <v>0.7278700344900001</v>
       </c>
       <c r="R5">
-        <v>5.775122230061061</v>
+        <v>6.55083031041</v>
       </c>
       <c r="S5">
-        <v>0.003834347887172903</v>
+        <v>0.0003838194235002211</v>
       </c>
       <c r="T5">
-        <v>0.003834347887172903</v>
+        <v>0.0004607404495474565</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.9842042979946</v>
+        <v>0.7006100000000001</v>
       </c>
       <c r="H6">
-        <v>10.9842042979946</v>
+        <v>2.10183</v>
       </c>
       <c r="I6">
-        <v>0.731981969108615</v>
+        <v>0.04034574880304091</v>
       </c>
       <c r="J6">
-        <v>0.731981969108615</v>
+        <v>0.04392235262467</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>28.5852147356633</v>
+        <v>30.502036</v>
       </c>
       <c r="N6">
-        <v>28.5852147356633</v>
+        <v>61.004072</v>
       </c>
       <c r="O6">
-        <v>0.2848000168746042</v>
+        <v>0.2793061441162328</v>
       </c>
       <c r="P6">
-        <v>0.2848000168746042</v>
+        <v>0.205319788929729</v>
       </c>
       <c r="Q6">
-        <v>313.9858385585714</v>
+        <v>21.37003144196</v>
       </c>
       <c r="R6">
-        <v>313.9858385585714</v>
+        <v>128.22018865176</v>
       </c>
       <c r="S6">
-        <v>0.2084684771540395</v>
+        <v>0.01126881552965947</v>
       </c>
       <c r="T6">
-        <v>0.2084684771540395</v>
+        <v>0.009018128170194374</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H7">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I7">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J7">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.60535367622028</v>
+        <v>6.743825</v>
       </c>
       <c r="N7">
-        <v>5.60535367622028</v>
+        <v>20.231475</v>
       </c>
       <c r="O7">
-        <v>0.05584722159123625</v>
+        <v>0.06175298453338176</v>
       </c>
       <c r="P7">
-        <v>0.05584722159123625</v>
+        <v>0.06809253940846915</v>
       </c>
       <c r="Q7">
-        <v>22.54422191966793</v>
+        <v>80.01961983766667</v>
       </c>
       <c r="R7">
-        <v>22.54422191966793</v>
+        <v>720.176578539</v>
       </c>
       <c r="S7">
-        <v>0.01496806236163798</v>
+        <v>0.04219583565673225</v>
       </c>
       <c r="T7">
-        <v>0.01496806236163798</v>
+        <v>0.05065227838711037</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H8">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I8">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J8">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>64.7764970017265</v>
+        <v>69.657865</v>
       </c>
       <c r="N8">
-        <v>64.7764970017265</v>
+        <v>208.973595</v>
       </c>
       <c r="O8">
-        <v>0.6453807539935337</v>
+        <v>0.6378547871531949</v>
       </c>
       <c r="P8">
-        <v>0.6453807539935337</v>
+        <v>0.7033368922862506</v>
       </c>
       <c r="Q8">
-        <v>260.5251707453969</v>
+        <v>826.5332917155334</v>
       </c>
       <c r="R8">
-        <v>260.5251707453969</v>
+        <v>7438.799625439799</v>
       </c>
       <c r="S8">
-        <v>0.1729736788605442</v>
+        <v>0.435846396331287</v>
       </c>
       <c r="T8">
-        <v>0.1729736788605442</v>
+        <v>0.523194117556691</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H9">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I9">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J9">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.876596304595289</v>
+        <v>1.263827666666667</v>
       </c>
       <c r="N9">
-        <v>0.876596304595289</v>
+        <v>3.791483</v>
       </c>
       <c r="O9">
-        <v>0.008733698334946614</v>
+        <v>0.01157282852869501</v>
       </c>
       <c r="P9">
-        <v>0.008733698334946614</v>
+        <v>0.01276089388411081</v>
       </c>
       <c r="Q9">
-        <v>3.525590491924636</v>
+        <v>14.99609041263555</v>
       </c>
       <c r="R9">
-        <v>3.525590491924636</v>
+        <v>134.96481371372</v>
       </c>
       <c r="S9">
-        <v>0.002340788630131759</v>
+        <v>0.007907717730086123</v>
       </c>
       <c r="T9">
-        <v>0.002340788630131759</v>
+        <v>0.009492498812666717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.02190891456284</v>
+        <v>11.86561333333333</v>
       </c>
       <c r="H10">
-        <v>4.02190891456284</v>
+        <v>35.59684</v>
       </c>
       <c r="I10">
-        <v>0.268018030891385</v>
+        <v>0.6833003453286129</v>
       </c>
       <c r="J10">
-        <v>0.268018030891385</v>
+        <v>0.7438741281663874</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.525766097696802</v>
+        <v>1.038909</v>
       </c>
       <c r="N10">
-        <v>0.525766097696802</v>
+        <v>3.116727</v>
       </c>
       <c r="O10">
-        <v>0.005238309205679277</v>
+        <v>0.009513255668495419</v>
       </c>
       <c r="P10">
-        <v>0.005238309205679277</v>
+        <v>0.01048988549144043</v>
       </c>
       <c r="Q10">
-        <v>2.114583355301686</v>
+        <v>12.32729248252</v>
       </c>
       <c r="R10">
-        <v>2.114583355301686</v>
+        <v>110.94563234268</v>
       </c>
       <c r="S10">
-        <v>0.001403961318506375</v>
+        <v>0.006500410883482305</v>
       </c>
       <c r="T10">
-        <v>0.001403961318506375</v>
+        <v>0.007803154424510488</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.86561333333333</v>
+      </c>
+      <c r="H11">
+        <v>35.59684</v>
+      </c>
+      <c r="I11">
+        <v>0.6833003453286129</v>
+      </c>
+      <c r="J11">
+        <v>0.7438741281663874</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>30.502036</v>
+      </c>
+      <c r="N11">
+        <v>61.004072</v>
+      </c>
+      <c r="O11">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P11">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q11">
+        <v>361.9253650554134</v>
+      </c>
+      <c r="R11">
+        <v>2171.55219033248</v>
+      </c>
+      <c r="S11">
+        <v>0.1908499847270252</v>
+      </c>
+      <c r="T11">
+        <v>0.1527320789854089</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H12">
+        <v>1.371554</v>
+      </c>
+      <c r="I12">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J12">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>6.743825</v>
+      </c>
+      <c r="N12">
+        <v>20.231475</v>
+      </c>
+      <c r="O12">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P12">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q12">
+        <v>3.083173384683333</v>
+      </c>
+      <c r="R12">
+        <v>27.74856046215</v>
+      </c>
+      <c r="S12">
+        <v>0.001625814740250363</v>
+      </c>
+      <c r="T12">
+        <v>0.001951643320894629</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H13">
+        <v>1.371554</v>
+      </c>
+      <c r="I13">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J13">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>69.657865</v>
+      </c>
+      <c r="N13">
+        <v>208.973595</v>
+      </c>
+      <c r="O13">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P13">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q13">
+        <v>31.84650779073666</v>
+      </c>
+      <c r="R13">
+        <v>286.61857011663</v>
+      </c>
+      <c r="S13">
+        <v>0.01679325660012973</v>
+      </c>
+      <c r="T13">
+        <v>0.02015878332771532</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H14">
+        <v>1.371554</v>
+      </c>
+      <c r="I14">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J14">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N14">
+        <v>3.791483</v>
+      </c>
+      <c r="O14">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P14">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q14">
+        <v>0.5778026305091111</v>
+      </c>
+      <c r="R14">
+        <v>5.200223674581999</v>
+      </c>
+      <c r="S14">
+        <v>0.000304686086842836</v>
+      </c>
+      <c r="T14">
+        <v>0.0003657480472004899</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H15">
+        <v>1.371554</v>
+      </c>
+      <c r="I15">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J15">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.038909</v>
+      </c>
+      <c r="N15">
+        <v>3.116727</v>
+      </c>
+      <c r="O15">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P15">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q15">
+        <v>0.474973264862</v>
+      </c>
+      <c r="R15">
+        <v>4.274759383758</v>
+      </c>
+      <c r="S15">
+        <v>0.0002504622474602714</v>
+      </c>
+      <c r="T15">
+        <v>0.0003006572398998073</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.4571846666666666</v>
+      </c>
+      <c r="H16">
+        <v>1.371554</v>
+      </c>
+      <c r="I16">
+        <v>0.02632771116303695</v>
+      </c>
+      <c r="J16">
+        <v>0.02866163221182333</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>30.502036</v>
+      </c>
+      <c r="N16">
+        <v>61.004072</v>
+      </c>
+      <c r="O16">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P16">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q16">
+        <v>13.94506316131467</v>
+      </c>
+      <c r="R16">
+        <v>83.670378967888</v>
+      </c>
+      <c r="S16">
+        <v>0.007353491488353748</v>
+      </c>
+      <c r="T16">
+        <v>0.005884800276113089</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H17">
+        <v>0.298806</v>
+      </c>
+      <c r="I17">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J17">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>6.743825</v>
+      </c>
+      <c r="N17">
+        <v>20.231475</v>
+      </c>
+      <c r="O17">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P17">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q17">
+        <v>0.6716984576500001</v>
+      </c>
+      <c r="R17">
+        <v>6.04528611885</v>
+      </c>
+      <c r="S17">
+        <v>0.000354199105011724</v>
+      </c>
+      <c r="T17">
+        <v>0.0004251839403649004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="H11">
-        <v>4.02190891456284</v>
-      </c>
-      <c r="I11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="J11">
-        <v>0.268018030891385</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>28.5852147356633</v>
-      </c>
-      <c r="N11">
-        <v>28.5852147356633</v>
-      </c>
-      <c r="O11">
-        <v>0.2848000168746042</v>
-      </c>
-      <c r="P11">
-        <v>0.2848000168746042</v>
-      </c>
-      <c r="Q11">
-        <v>114.9671299700573</v>
-      </c>
-      <c r="R11">
-        <v>114.9671299700573</v>
-      </c>
-      <c r="S11">
-        <v>0.07633153972056463</v>
-      </c>
-      <c r="T11">
-        <v>0.07633153972056463</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H18">
+        <v>0.298806</v>
+      </c>
+      <c r="I18">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J18">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>69.657865</v>
+      </c>
+      <c r="N18">
+        <v>208.973595</v>
+      </c>
+      <c r="O18">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P18">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q18">
+        <v>6.938062669730001</v>
+      </c>
+      <c r="R18">
+        <v>62.44256402757</v>
+      </c>
+      <c r="S18">
+        <v>0.003658569645568723</v>
+      </c>
+      <c r="T18">
+        <v>0.00439178144719151</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H19">
+        <v>0.298806</v>
+      </c>
+      <c r="I19">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J19">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N19">
+        <v>3.791483</v>
+      </c>
+      <c r="O19">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P19">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q19">
+        <v>0.1258797632553333</v>
+      </c>
+      <c r="R19">
+        <v>1.132917869298</v>
+      </c>
+      <c r="S19">
+        <v>6.63787432832834E-05</v>
+      </c>
+      <c r="T19">
+        <v>7.968166837892608E-05</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H20">
+        <v>0.298806</v>
+      </c>
+      <c r="I20">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J20">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.038909</v>
+      </c>
+      <c r="N20">
+        <v>3.116727</v>
+      </c>
+      <c r="O20">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P20">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q20">
+        <v>0.103477414218</v>
+      </c>
+      <c r="R20">
+        <v>0.931296727962</v>
+      </c>
+      <c r="S20">
+        <v>5.456556746188182E-05</v>
+      </c>
+      <c r="T20">
+        <v>6.550102090439155E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.09960200000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.298806</v>
+      </c>
+      <c r="I21">
+        <v>0.005735740672100712</v>
+      </c>
+      <c r="J21">
+        <v>0.006244207427987584</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>30.502036</v>
+      </c>
+      <c r="N21">
+        <v>61.004072</v>
+      </c>
+      <c r="O21">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P21">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q21">
+        <v>3.038063789672</v>
+      </c>
+      <c r="R21">
+        <v>18.228382738032</v>
+      </c>
+      <c r="S21">
+        <v>0.001602027610775099</v>
+      </c>
+      <c r="T21">
+        <v>0.001282059351147857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>4.2421405</v>
+      </c>
+      <c r="H22">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J22">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>6.743825</v>
+      </c>
+      <c r="N22">
+        <v>20.231475</v>
+      </c>
+      <c r="O22">
+        <v>0.06175298453338176</v>
+      </c>
+      <c r="P22">
+        <v>0.06809253940846915</v>
+      </c>
+      <c r="Q22">
+        <v>28.6082531574125</v>
+      </c>
+      <c r="R22">
+        <v>171.649518944475</v>
+      </c>
+      <c r="S22">
+        <v>0.01508566462956554</v>
+      </c>
+      <c r="T22">
+        <v>0.01207264923309123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4.2421405</v>
+      </c>
+      <c r="H23">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I23">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J23">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>69.657865</v>
+      </c>
+      <c r="N23">
+        <v>208.973595</v>
+      </c>
+      <c r="O23">
+        <v>0.6378547871531949</v>
+      </c>
+      <c r="P23">
+        <v>0.7033368922862506</v>
+      </c>
+      <c r="Q23">
+        <v>295.4984502600325</v>
+      </c>
+      <c r="R23">
+        <v>1772.990701560195</v>
+      </c>
+      <c r="S23">
+        <v>0.1558218355609096</v>
+      </c>
+      <c r="T23">
+        <v>0.1246999989577165</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>4.2421405</v>
+      </c>
+      <c r="H24">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I24">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J24">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>1.263827666666667</v>
+      </c>
+      <c r="N24">
+        <v>3.791483</v>
+      </c>
+      <c r="O24">
+        <v>0.01157282852869501</v>
+      </c>
+      <c r="P24">
+        <v>0.01276089388411081</v>
+      </c>
+      <c r="Q24">
+        <v>5.361334529787166</v>
+      </c>
+      <c r="R24">
+        <v>32.16800717872299</v>
+      </c>
+      <c r="S24">
+        <v>0.002827131535723374</v>
+      </c>
+      <c r="T24">
+        <v>0.00226247687488077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>4.2421405</v>
+      </c>
+      <c r="H25">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I25">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J25">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>1.038909</v>
+      </c>
+      <c r="N25">
+        <v>3.116727</v>
+      </c>
+      <c r="O25">
+        <v>0.009513255668495419</v>
+      </c>
+      <c r="P25">
+        <v>0.01048988549144043</v>
+      </c>
+      <c r="Q25">
+        <v>4.4071979447145</v>
+      </c>
+      <c r="R25">
+        <v>26.443187668287</v>
+      </c>
+      <c r="S25">
+        <v>0.002323997546590742</v>
+      </c>
+      <c r="T25">
+        <v>0.001859832356578288</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>4.2421405</v>
+      </c>
+      <c r="H26">
+        <v>8.484280999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.2442904540332086</v>
+      </c>
+      <c r="J26">
+        <v>0.1772976795691316</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>30.502036</v>
+      </c>
+      <c r="N26">
+        <v>61.004072</v>
+      </c>
+      <c r="O26">
+        <v>0.2793061441162328</v>
+      </c>
+      <c r="P26">
+        <v>0.205319788929729</v>
+      </c>
+      <c r="Q26">
+        <v>129.393922248058</v>
+      </c>
+      <c r="R26">
+        <v>517.575688992232</v>
+      </c>
+      <c r="S26">
+        <v>0.06823182476041931</v>
+      </c>
+      <c r="T26">
+        <v>0.03640272214686482</v>
       </c>
     </row>
   </sheetData>
